--- a/website.xlsx
+++ b/website.xlsx
@@ -13,7 +13,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Company Name</t>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Company name</t>
   </si>
   <si>
     <t>Domain name</t>
@@ -22,94 +25,160 @@
     <t>Tax Number</t>
   </si>
   <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Trung Tâm Sản Phẩm Sinh Học AQ</t>
+  </si>
+  <si>
+    <t>nguyenlieusinhhoc.com</t>
+  </si>
+  <si>
+    <t>0317552095</t>
+  </si>
+  <si>
     <t>Số 05 Đồng Nai, P. 2, Q. Tân Bình, Tp. Hồ Chí Minh</t>
   </si>
   <si>
-    <t>nguyenlieusinhhoc.com</t>
-  </si>
-  <si>
-    <t>0317552095</t>
+    <t>http://online.gov.vn/Home/WebDetails/102092</t>
+  </si>
+  <si>
+    <t>Công ty TNHH VPT Fashion</t>
+  </si>
+  <si>
+    <t>motm.vn</t>
+  </si>
+  <si>
+    <t>3603933675</t>
   </si>
   <si>
     <t>Tầng 7, Tòa tháp Ngôi Sao, phố Dương Đình Nghệ, Khu Đô thị mới Cầu Giấy, P. Yên Hoà, Q. Cầu Giấy, Tp. Hà Nội</t>
   </si>
   <si>
-    <t>motm.vn</t>
-  </si>
-  <si>
-    <t>3603933675</t>
+    <t>http://online.gov.vn/Home/WebDetails/111382</t>
+  </si>
+  <si>
+    <t>Thanh Lý Trường Phát</t>
+  </si>
+  <si>
+    <t>noithatvanphongcantho.vn</t>
+  </si>
+  <si>
+    <t>1801571543</t>
   </si>
   <si>
     <t>Số 325, Võ Văn Kiệt, P. An Thới, Q. Bình Thủy, Tp. Cần Thơ</t>
   </si>
   <si>
-    <t>noithatvanphongcantho.vn</t>
-  </si>
-  <si>
-    <t>1801571543</t>
+    <t>http://online.gov.vn/Home/WebDetails/110481</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ EMALL</t>
+  </si>
+  <si>
+    <t>pierre-cardin.vn</t>
+  </si>
+  <si>
+    <t>0312487886</t>
   </si>
   <si>
     <t>TẦNG 11, TÒA NHÀ HOÀN LONG, 244 CỐNG QUỲNH, PHƯỜNG PHẠM NGŨ LÃO, QUẬN 1</t>
   </si>
   <si>
-    <t>pierre-cardin.vn</t>
-  </si>
-  <si>
-    <t>0312487886</t>
+    <t>http://online.gov.vn/Home/WebDetails/110313</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Phát triển quốc tế VES</t>
+  </si>
+  <si>
+    <t>goodmanskincare.com</t>
+  </si>
+  <si>
+    <t>0110278752</t>
   </si>
   <si>
     <t>Phòng 0510 Tầng 05 Tòa nhà C2, D’capitale số 119 Đường Trần Duy Hưng, P. Trung Hoà, Q. Cầu Giấy, Tp. Hà Nội</t>
   </si>
   <si>
-    <t>goodmanskincare.com</t>
-  </si>
-  <si>
-    <t>0110278752</t>
+    <t>http://online.gov.vn/Home/WebDetails/110996</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Good Food For Life</t>
+  </si>
+  <si>
+    <t>shop.delifres.com.vn</t>
+  </si>
+  <si>
+    <t>0315986932</t>
   </si>
   <si>
     <t>C10, khu dân cư Park Riverside, Đường Bưng Ông Thoàn, P. Phú Hữu, Tp. Thủ Đức, Tp. Hồ Chí Minh.</t>
   </si>
   <si>
-    <t>shop.delifres.com.vn</t>
-  </si>
-  <si>
-    <t>0315986932</t>
+    <t>http://online.gov.vn/Home/WebDetails/111008</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Sản xuất &amp; Thương mại Minh Hy</t>
+  </si>
+  <si>
+    <t>tafood.com.vn</t>
   </si>
   <si>
     <t>0313057501</t>
   </si>
   <si>
-    <t>tafood.com.vn</t>
-  </si>
-  <si>
-    <t>Công ty Cổ phần Sản xuất &amp; Thương mại Minh Hy</t>
+    <t>http://online.gov.vn/Home/WebDetails/110440</t>
+  </si>
+  <si>
+    <t>Doanh nghiệp tư nhân Ẩm Thực Thịnh Phát VT</t>
+  </si>
+  <si>
+    <t>thinhphatfood.vn</t>
+  </si>
+  <si>
+    <t>3502507487</t>
   </si>
   <si>
     <t>112/5A Đường Đô Lương, P. 11, Tp. Vũng Tàu, Bà Rịa - Vũng tàu</t>
   </si>
   <si>
-    <t>thinhphatfood.vn</t>
-  </si>
-  <si>
-    <t>3502507487</t>
+    <t>http://online.gov.vn/Home/WebDetails/110999</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Công Nghệ Thực Phẩm Hoa Sen</t>
+  </si>
+  <si>
+    <t>lotusfood.net</t>
+  </si>
+  <si>
+    <t>1001214038</t>
   </si>
   <si>
     <t>Khu Nhân Cầu 1, Thị Trấn Hưng Hà, H. Hưng Hà, Thái Bình</t>
   </si>
   <si>
-    <t>lotusfood.net</t>
-  </si>
-  <si>
-    <t>1001214038</t>
+    <t>http://online.gov.vn/Home/WebDetails/111307</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Hệ thống Thông tin FPT</t>
+  </si>
+  <si>
+    <t>ubot.vn</t>
+  </si>
+  <si>
+    <t>0104128565</t>
   </si>
   <si>
     <t>Tầng 22, Keangnam Landmark 72, Lô E6 Phạm Hùng, P.  Mễ Trì, Q. Nam Từ Liêm, Tp. Hà Nội</t>
   </si>
   <si>
-    <t>ubot.vn</t>
-  </si>
-  <si>
-    <t>0104128565</t>
+    <t>http://online.gov.vn/Home/WebDetails/111473</t>
   </si>
 </sst>
 </file>
@@ -169,16 +238,34 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -186,98 +273,179 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
